--- a/assets/three_things.xlsx
+++ b/assets/three_things.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/StudioProjects/three_things_for_couple/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11AC021-9DB3-384B-A751-6E4EC4B4723F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B64D61E-97A0-FB40-9F88-19D7C3F0703F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="5400" windowWidth="24980" windowHeight="12360" activeTab="1" xr2:uid="{38047CF9-F7D0-0A4F-A67E-6BCDE798DDAF}"/>
+    <workbookView xWindow="300" yWindow="940" windowWidth="28600" windowHeight="16800" xr2:uid="{38047CF9-F7D0-0A4F-A67E-6BCDE798DDAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>중제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A81DBA7-455E-2345-B25A-8E20B9F89AEA}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -812,18 +812,459 @@
         <v>62</v>
       </c>
     </row>
+    <row r="4" spans="1:14" ht="114">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="G4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="I4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="J4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="K4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="L4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="M4" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="N4" s="1">
+        <v>11111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="76">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="D5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="E5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="F5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="G5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="H5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="I5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="J5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="K5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="L5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="M5" s="1">
+        <v>22222222</v>
+      </c>
+      <c r="N5" s="1">
+        <v>22222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="95">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="K6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="L6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="M6" s="1">
+        <v>44444444</v>
+      </c>
+      <c r="N6" s="1">
+        <v>44444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="114">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="D7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="E7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="F7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="G7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="H7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="I7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="J7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="K7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="L7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="M7" s="1">
+        <v>88888888</v>
+      </c>
+      <c r="N7" s="1">
+        <v>88888888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="76">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="D8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="E8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="F8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="G8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="H8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="I8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="J8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="K8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="L8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="M8" s="1">
+        <v>177777776</v>
+      </c>
+      <c r="N8" s="1">
+        <v>177777776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="95">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="D9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="E9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="F9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="G9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="H9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="I9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="J9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="K9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="L9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="M9" s="1">
+        <v>355555552</v>
+      </c>
+      <c r="N9" s="1">
+        <v>355555552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="133">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="D10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="E10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="F10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="G10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="H10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="I10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="J10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="K10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="L10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="M10" s="1">
+        <v>711111104</v>
+      </c>
+      <c r="N10" s="1">
+        <v>711111104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="95">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1422222208</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1422222208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="114">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2844444416</v>
+      </c>
+      <c r="N12" s="1">
+        <v>2844444416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="95">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5688888832</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5688888832</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632F16C6-D1C3-F44C-98EA-59139F60346F}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1193,24 +1634,25 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="18" spans="2:3" ht="133">
+    <row r="17" spans="2:3" ht="133">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="152">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="152">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>